--- a/scripts/List_9.xlsx
+++ b/scripts/List_9.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">KINGUE GILBERT PATRICK THOMAS</t>
   </si>
   <si>
-    <t xml:space="preserve">22G00468 </t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">KOKO STEEVE-LAUREN JARREL</t>
@@ -313,6 +313,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -507,7 +508,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scripts/List_9.xlsx
+++ b/scripts/List_9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">MEVA'A MEVA'A VEME PIERRE OLIVIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23G00618</t>
   </si>
   <si>
     <t xml:space="preserve">MIGUE DASSI MINERVE LAETICIA</t>
@@ -507,8 +504,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1152,11 +1149,9 @@
         <f aca="false">A37+1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>3</v>
@@ -1171,10 +1166,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>3</v>
@@ -1189,7 +1184,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>3</v>
@@ -1204,7 +1199,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>3</v>
@@ -1219,10 +1214,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>3</v>
@@ -1237,10 +1232,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>3</v>
@@ -1255,10 +1250,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>3</v>
@@ -1273,10 +1268,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>3</v>
@@ -1291,7 +1286,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>3</v>
@@ -1306,7 +1301,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>3</v>
@@ -1321,10 +1316,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>3</v>
@@ -1339,10 +1334,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>3</v>
@@ -1357,10 +1352,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>3</v>
@@ -1375,10 +1370,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>3</v>
